--- a/Анализ.xlsx
+++ b/Анализ.xlsx
@@ -536,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,68 +547,108 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Наименование</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Сколько позиций.</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Сумма.</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>группа 1- "Мертвый" склад</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>540</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>2244497.02</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>группа 1 - свыше 5 тыс</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>79</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>840545.9300000001</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>группа 1 - свыше 10 тыс</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>25</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>370146.4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>группа 2 - Бестолковые закупки</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>17927.73</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>группа 3 - Излишние запасы</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>138</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>627833.3100000001</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>группа 4 - Проверка спроса</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>142</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>800914.26</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>группа 5 - Нет ходового товара</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>142</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>891477.1899999999</v>
       </c>
     </row>
